--- a/excel/17823805351-中医智慧诊疗诊断表.xlsx
+++ b/excel/17823805351-中医智慧诊疗诊断表.xlsx
@@ -623,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="1">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="true">
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="true">
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="1">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="true">
@@ -875,7 +875,7 @@
         <v>47</v>
       </c>
       <c r="I10" s="1">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -935,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="1">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="1">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -1055,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="1">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
